--- a/plot.xlsx
+++ b/plot.xlsx
@@ -276,31 +276,31 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.666666666666668</c:v>
+                  <c:v>30.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.555555555555557</c:v>
+                  <c:v>29.888888888888889</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.074074074074076</c:v>
+                  <c:v>3.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.876543209876544</c:v>
+                  <c:v>3.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.650205761316872</c:v>
+                  <c:v>2.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.883401920438958</c:v>
+                  <c:v>3.3333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>5</c:v>
@@ -1546,7 +1546,7 @@
   <dimension ref="B1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1902,8 +1902,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:C16" si="1">AVERAGE(C12:C14)</f>
-        <v>29.666666666666668</v>
+        <v>30.666666666666668</v>
       </c>
       <c r="D15">
         <v>33</v>
@@ -1914,8 +1913,8 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
-        <v>29.555555555555557</v>
+        <f t="shared" ref="C15:C16" si="1">AVERAGE(C13:C15)</f>
+        <v>29.888888888888889</v>
       </c>
       <c r="D16">
         <v>33</v>
@@ -1937,8 +1936,7 @@
         <v>50</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:C19" si="2">AVERAGE(C15:C17)</f>
-        <v>29.074074074074076</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="D18">
         <v>33</v>
@@ -1949,8 +1947,7 @@
         <v>60</v>
       </c>
       <c r="C19">
-        <f t="shared" si="2"/>
-        <v>28.876543209876544</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="D19">
         <v>33</v>
@@ -1972,8 +1969,7 @@
         <v>80</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21" si="3">AVERAGE(C18:C20)</f>
-        <v>20.650205761316872</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="D21">
         <v>33</v>
@@ -1995,8 +1991,7 @@
         <v>100</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23" si="4">AVERAGE(C20:C22)</f>
-        <v>9.883401920438958</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="D23">
         <v>33</v>

--- a/plot.xlsx
+++ b/plot.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Seza\UCL\cours\SINF2MS\Q2\LINGI2146-Mobile_and_Embedded_Computing\Project\Z1_Mote_Controller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -161,7 +161,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -312,7 +312,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2394-45AB-A974-8621879AEA09}"/>
             </c:ext>
@@ -459,7 +459,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2394-45AB-A974-8621879AEA09}"/>
             </c:ext>
@@ -473,11 +473,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1446703280"/>
-        <c:axId val="1446703696"/>
+        <c:axId val="837556000"/>
+        <c:axId val="837547840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1446703280"/>
+        <c:axId val="837556000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -497,6 +497,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-BE"/>
+                  <a:t>Distance (cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -531,15 +587,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1446703696"/>
+        <c:crossAx val="837547840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1446703696"/>
+        <c:axId val="837547840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -559,6 +615,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-BE"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-BE" baseline="0"/>
+                  <a:t> of i</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-BE"/>
+                  <a:t>nputs</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-BE" baseline="0"/>
+                  <a:t> received</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -593,10 +717,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1446703280"/>
+        <c:crossAx val="837556000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -636,7 +760,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -666,7 +790,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1545,18 +1669,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="16" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="16" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1603,7 +1727,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1650,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>28</v>
       </c>
@@ -1694,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>31</v>
       </c>
@@ -1738,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C5">
         <f>AVERAGE(C2:C4)</f>
         <v>30</v>
@@ -1796,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -1804,12 +1928,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>33</v>
       </c>
@@ -1853,7 +1977,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -1864,7 +1988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>0</v>
       </c>
@@ -1875,7 +1999,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>10</v>
       </c>
@@ -1886,7 +2010,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>20</v>
       </c>
@@ -1897,7 +2021,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>30</v>
       </c>
@@ -1908,19 +2032,19 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>40</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C15:C16" si="1">AVERAGE(C13:C15)</f>
+        <f t="shared" ref="C16" si="1">AVERAGE(C13:C15)</f>
         <v>29.888888888888889</v>
       </c>
       <c r="D16">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>48</v>
       </c>
@@ -1931,7 +2055,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>50</v>
       </c>
@@ -1942,7 +2066,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>60</v>
       </c>
@@ -1953,7 +2077,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>70</v>
       </c>
@@ -1964,7 +2088,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>80</v>
       </c>
@@ -1975,7 +2099,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>90</v>
       </c>
@@ -1986,7 +2110,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>100</v>
       </c>
@@ -1997,7 +2121,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>150</v>
       </c>
@@ -2008,7 +2132,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>200</v>
       </c>
